--- a/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
+++ b/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Desktop\Repositorios\inventario\Diagrama de Gant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864340E-3D46-4FCD-A0AB-9002C34C4F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB474FEB-BD48-4892-8F68-0435C1417C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -1580,31 +1580,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1618,6 +1596,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,23 +1637,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,9 +1654,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,6 +1957,9 @@
                 <c:pt idx="3" formatCode="d/m/yyyy">
                   <c:v>43785</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="d/m/yyyy">
+                  <c:v>43971</c:v>
+                </c:pt>
                 <c:pt idx="7" formatCode="d/m/yyyy">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -2072,10 +2075,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-43971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2090,7 +2093,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2507,7 +2510,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2552,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,7 +3471,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44000.82262013889" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44001.467372106483" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B10:G15" sheet="Recursos"/>
   </cacheSource>
@@ -3483,13 +3486,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Jose Damian Cuscue" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="0.99999999999999989"/>
     </cacheField>
     <cacheField name="Juan Pablo Acosta" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.05" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="0.99999999999999989"/>
     </cacheField>
     <cacheField name="Sebastian Jose Lagares" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="1"/>
     </cacheField>
     <cacheField name="Yulieth Gutierrez" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="1"/>
@@ -3510,42 +3513,42 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <n v="0.99999999999999989"/>
+    <n v="0.99999999999999989"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0.6"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.1"/>
-    <n v="0.3"/>
-    <n v="0.5"/>
-    <n v="0.1"/>
+    <n v="0.25"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
     <m/>
   </r>
   <r>
     <x v="2"/>
     <n v="0.1"/>
     <n v="0.15"/>
-    <n v="0.2"/>
-    <n v="0.3"/>
+    <n v="0.15"/>
+    <n v="0.1"/>
     <m/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.1"/>
-    <n v="0.5"/>
     <n v="0.3"/>
-    <n v="0.2"/>
+    <n v="0.3"/>
+    <n v="0.25"/>
+    <n v="0.25"/>
     <m/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.7"/>
-    <n v="0.05"/>
-    <n v="0"/>
+    <n v="0.35"/>
+    <n v="0.35"/>
     <n v="0.4"/>
+    <n v="0.45"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -3800,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3826,16 +3829,16 @@
     <row r="1" spans="1:30" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -3860,14 +3863,14 @@
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -3998,15 +4001,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="132" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="134"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4112,17 +4115,17 @@
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="118"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
         <f>J12/J13</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4151,10 +4154,10 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="21">
         <v>43748</v>
       </c>
@@ -4198,10 +4201,10 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="24">
         <v>43775</v>
       </c>
@@ -4245,10 +4248,10 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="123"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="24">
         <v>43785</v>
       </c>
@@ -4267,7 +4270,7 @@
       </c>
       <c r="J12" s="25">
         <f>SUM(I11:I14)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4295,10 +4298,10 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="22">
@@ -4309,7 +4312,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <f>COUNT(I11:I14)</f>
@@ -4341,21 +4344,23 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="24">
+        <v>43971</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-43971</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4382,17 +4387,17 @@
     <row r="15" spans="1:30" ht="15.75">
       <c r="A15" s="1"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="118"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="22"/>
       <c r="H15" s="19"/>
       <c r="I15" s="20">
         <f>J16/J17</f>
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -4421,19 +4426,19 @@
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="24">
         <v>43961</v>
       </c>
       <c r="F16" s="24">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" ref="G16:G22" si="1">F16-E16</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>24</v>
@@ -4443,7 +4448,7 @@
       </c>
       <c r="J16" s="25">
         <f>SUM(I16:I22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4471,10 +4476,10 @@
       <c r="B17" s="16">
         <v>7</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="22">
@@ -4485,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <f>COUNT(I16:I22)</f>
@@ -4517,10 +4522,10 @@
       <c r="B18" s="16">
         <v>8</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="22">
@@ -4531,7 +4536,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4560,10 +4565,10 @@
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="22">
@@ -4603,10 +4608,10 @@
       <c r="B20" s="16">
         <v>10</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="22">
@@ -4646,25 +4651,25 @@
       <c r="B21" s="16">
         <v>11</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="24">
         <v>43985</v>
       </c>
       <c r="F21" s="24">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4693,10 +4698,10 @@
       <c r="B22" s="16">
         <v>12</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="22">
@@ -4734,10 +4739,10 @@
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="1"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="22"/>
@@ -4773,10 +4778,10 @@
       <c r="B24" s="16">
         <v>13</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="22">
@@ -4819,10 +4824,10 @@
       <c r="B25" s="16">
         <v>14</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="22">
@@ -4863,10 +4868,10 @@
     <row r="26" spans="1:30" ht="15.75">
       <c r="A26" s="1"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="22"/>
@@ -4902,10 +4907,10 @@
       <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="116"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="22">
@@ -4948,10 +4953,10 @@
       <c r="B28" s="16">
         <v>16</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="22">
@@ -4992,8 +4997,8 @@
     <row r="29" spans="1:30" ht="15.75">
       <c r="A29" s="1"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="22"/>
@@ -5024,10 +5029,10 @@
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="1"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="120"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="30">
         <f>E11</f>
         <v>43775</v>
@@ -36106,21 +36111,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -36131,6 +36121,21 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -36141,7 +36146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -36156,10 +36161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36181,11 +36186,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
     </row>
     <row r="3" spans="2:12" ht="5.25" customHeight="1"/>
     <row r="4" spans="2:12" ht="18.75" customHeight="1">
@@ -36198,15 +36203,15 @@
       <c r="D4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="2:12" ht="15.75">
       <c r="B5" s="42" t="s">
@@ -36218,13 +36223,13 @@
       <c r="D5" s="44">
         <v>10000</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="2:12" ht="15.75">
       <c r="B6" s="42" t="s">
@@ -36236,13 +36241,13 @@
       <c r="D6" s="44">
         <v>10000</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="15.75">
       <c r="B7" s="42" t="s">
@@ -36254,13 +36259,13 @@
       <c r="D7" s="44">
         <v>10000</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
     </row>
     <row r="8" spans="2:12" ht="15.75">
       <c r="B8" s="113" t="s">
@@ -36272,13 +36277,13 @@
       <c r="D8" s="112">
         <v>10000</v>
       </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
     </row>
     <row r="9" spans="2:12" ht="9.75" customHeight="1"/>
     <row r="10" spans="2:12" ht="15.75">
@@ -36313,14 +36318,14 @@
       </c>
       <c r="C11" s="43">
         <f>SUM(C12:C15)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D11" s="43">
         <f>SUM(D12:D15)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="E11" s="43">
-        <f t="shared" ref="C11:F11" si="0">SUM(E12:E15)</f>
+        <f t="shared" ref="E11:F11" si="0">SUM(E12:E15)</f>
         <v>1</v>
       </c>
       <c r="F11" s="43">
@@ -36337,16 +36342,16 @@
         <v>Requerimientos</v>
       </c>
       <c r="C12" s="43">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="49"/>
     </row>
@@ -36356,16 +36361,16 @@
         <v>Mapa de Procesos</v>
       </c>
       <c r="C13" s="43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="43">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="43">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="49"/>
     </row>
@@ -36381,10 +36386,10 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="43">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="43">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="49"/>
     </row>
@@ -36394,16 +36399,16 @@
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
       <c r="C15" s="43">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="43">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="43">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="49"/>
     </row>
@@ -36423,10 +36428,18 @@
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="49"/>
       <c r="M17" s="1"/>
     </row>
@@ -36454,8 +36467,8 @@
     </row>
     <row r="20" spans="2:13" ht="15.75">
       <c r="B20" s="50" t="str">
-        <f>Planificación!C18</f>
-        <v>Diagramas Distribución</v>
+        <f>Planificación!C19</f>
+        <v>Diagrama Relacional</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -36465,8 +36478,8 @@
     </row>
     <row r="21" spans="2:13" ht="15.75">
       <c r="B21" s="50" t="str">
-        <f>Planificación!C19</f>
-        <v>Diagrama Relacional</v>
+        <f>Planificación!C20</f>
+        <v>Diccionario de Datos</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -36476,19 +36489,27 @@
     </row>
     <row r="22" spans="2:13" ht="15.75">
       <c r="B22" s="50" t="str">
-        <f>Planificación!C20</f>
-        <v>Diccionario de Datos</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+        <f>Planificación!C21</f>
+        <v>Mockup del sistema</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0.4</v>
+      </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:13" ht="15.75">
       <c r="B23" s="50" t="str">
-        <f>Planificación!C21</f>
-        <v>Mockup del sistema</v>
+        <f>Planificación!C22</f>
+        <v>Arquitectura del sistema</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -36497,9 +36518,9 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="2:13" ht="15.75">
-      <c r="B24" s="50" t="str">
-        <f>Planificación!C22</f>
-        <v>Arquitectura del sistema</v>
+      <c r="B24" s="17" t="str">
+        <f>Planificación!C23</f>
+        <v>FASE DESARROLLO</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -36508,9 +36529,9 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="2:13" ht="15.75">
-      <c r="B25" s="17" t="str">
-        <f>Planificación!C23</f>
-        <v>FASE DESARROLLO</v>
+      <c r="B25" s="50" t="str">
+        <f>Planificación!C24</f>
+        <v>Desarrollo de interfaces</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -36520,8 +36541,8 @@
     </row>
     <row r="26" spans="2:13" ht="15.75">
       <c r="B26" s="50" t="str">
-        <f>Planificación!C24</f>
-        <v>Desarrollo de interfaces</v>
+        <f>Planificación!C25</f>
+        <v>Desarrollo del sistema</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -36529,10 +36550,10 @@
       <c r="F26" s="43"/>
       <c r="G26" s="49"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75">
-      <c r="B27" s="50" t="str">
-        <f>Planificación!C25</f>
-        <v>Desarrollo del sistema</v>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B27" s="17" t="str">
+        <f>Planificación!C26</f>
+        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -36540,10 +36561,10 @@
       <c r="F27" s="43"/>
       <c r="G27" s="49"/>
     </row>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="17" t="str">
-        <f>Planificación!C26</f>
-        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
+    <row r="28" spans="2:13" ht="15.75">
+      <c r="B28" s="50" t="str">
+        <f>Planificación!C27</f>
+        <v>Pruebas del sistema</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -36552,32 +36573,21 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="2:13" ht="15.75">
-      <c r="B29" s="50" t="str">
-        <f>Planificación!C27</f>
-        <v>Pruebas del sistema</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75">
-      <c r="B30" s="51" t="str">
+      <c r="B29" s="51" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="52"/>
-    </row>
-    <row r="33" spans="3:6" ht="15.75">
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36591,10 +36601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:O30"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36611,19 +36621,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="L2" s="154" t="s">
+      <c r="L2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="156">
+      <c r="M2" s="152">
         <f>M7</f>
         <v>590200</v>
       </c>
-      <c r="N2" s="140"/>
+      <c r="N2" s="143"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="L3" s="155"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="146"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="149"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="53"/>
@@ -36639,26 +36649,26 @@
     </row>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="6"/>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="157" t="s">
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="158" t="s">
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="159" t="s">
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="159" t="s">
+      <c r="N5" s="155" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="55" t="s">
@@ -36699,8 +36709,8 @@
       <c r="L6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
       <c r="O6" s="61" t="s">
         <v>67</v>
       </c>
@@ -36720,11 +36730,11 @@
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
       <c r="M7" s="70">
-        <f>M8+M13+M22+M25</f>
+        <f>M8+M13+M21+M24</f>
         <v>590200</v>
       </c>
       <c r="N7" s="70">
-        <f>SUM(N8:N28)</f>
+        <f>SUM(N8:N27)</f>
         <v>0</v>
       </c>
       <c r="O7" s="70">
@@ -36737,21 +36747,21 @@
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="72">
         <f>SUM(E9:E12)</f>
         <v>360000</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="72">
         <f>SUM(I9:I12)</f>
         <v>45200</v>
       </c>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="163"/>
       <c r="L8" s="73">
         <f>SUM(L9:L12)</f>
         <v>40000</v>
@@ -36807,7 +36817,7 @@
       </c>
       <c r="N9" s="85"/>
       <c r="O9" s="86">
-        <f t="shared" ref="O9:O29" si="3">M9-N9</f>
+        <f t="shared" ref="O9:O28" si="3">M9-N9</f>
         <v>46200</v>
       </c>
     </row>
@@ -36960,23 +36970,23 @@
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="72">
-        <f>SUM(E14:E21)</f>
+        <f>SUM(E14:E20)</f>
         <v>110000</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
       <c r="I13" s="72">
-        <f>SUM(I14:I21)</f>
+        <f>SUM(I14:I20)</f>
         <v>35000</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="72">
-        <f>SUM(L14:L21)</f>
+        <f>SUM(L14:L20)</f>
         <v>0</v>
       </c>
       <c r="M13" s="87">
@@ -37001,7 +37011,7 @@
         <v>3000</v>
       </c>
       <c r="E14" s="80">
-        <f t="shared" ref="E14:E21" si="5">C14*D14</f>
+        <f t="shared" ref="E14:E20" si="5">C14*D14</f>
         <v>30000</v>
       </c>
       <c r="F14" s="81" t="s">
@@ -37014,17 +37024,17 @@
         <v>3000</v>
       </c>
       <c r="I14" s="80">
-        <f t="shared" ref="I14:I21" si="6">G14*H14</f>
+        <f t="shared" ref="I14:I20" si="6">G14*H14</f>
         <v>15000</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="79"/>
       <c r="L14" s="80">
-        <f t="shared" ref="L14:L21" si="7">K14</f>
+        <f t="shared" ref="L14:L20" si="7">K14</f>
         <v>0</v>
       </c>
       <c r="M14" s="84">
-        <f t="shared" ref="M14:M21" si="8">SUM(E14+I14+L14)</f>
+        <f t="shared" ref="M14:M20" si="8">SUM(E14+I14+L14)</f>
         <v>45000</v>
       </c>
       <c r="N14" s="85"/>
@@ -37109,13 +37119,13 @@
     </row>
     <row r="17" spans="2:15" ht="15.75">
       <c r="B17" s="77" t="str">
-        <f>Planificación!C18</f>
-        <v>Diagramas Distribución</v>
+        <f>Planificación!C19</f>
+        <v>Diagrama Relacional</v>
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="79"/>
       <c r="E17" s="80">
-        <f t="shared" si="5"/>
+        <f>C17*D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="81"/>
@@ -37143,13 +37153,13 @@
     </row>
     <row r="18" spans="2:15" ht="15.75">
       <c r="B18" s="77" t="str">
-        <f>Planificación!C19</f>
-        <v>Diagrama Relacional</v>
+        <f>Planificación!C20</f>
+        <v>Diccionario de Datos</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="79"/>
       <c r="E18" s="80">
-        <f>C18*D18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F18" s="81"/>
@@ -37177,14 +37187,18 @@
     </row>
     <row r="19" spans="2:15" ht="15.75">
       <c r="B19" s="77" t="str">
-        <f>Planificación!C20</f>
-        <v>Diccionario de Datos</v>
-      </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+        <f>Planificación!C21</f>
+        <v>Mockup del sistema</v>
+      </c>
+      <c r="C19" s="78">
+        <v>20</v>
+      </c>
+      <c r="D19" s="79">
+        <v>4000</v>
+      </c>
       <c r="E19" s="80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="F19" s="81"/>
       <c r="G19" s="82"/>
@@ -37201,28 +37215,24 @@
       </c>
       <c r="M19" s="84">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="N19" s="85"/>
       <c r="O19" s="86">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75">
       <c r="B20" s="77" t="str">
-        <f>Planificación!C21</f>
-        <v>Mockup del sistema</v>
-      </c>
-      <c r="C20" s="78">
-        <v>20</v>
-      </c>
-      <c r="D20" s="79">
-        <v>4000</v>
-      </c>
+        <f>Planificación!C22</f>
+        <v>Arquitectura del sistema</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="80">
         <f t="shared" si="5"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="81"/>
       <c r="G20" s="82"/>
@@ -37239,40 +37249,40 @@
       </c>
       <c r="M20" s="84">
         <f t="shared" si="8"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="N20" s="85"/>
       <c r="O20" s="86">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75">
-      <c r="B21" s="77" t="str">
-        <f>Planificación!C22</f>
-        <v>Arquitectura del sistema</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80">
-        <f t="shared" si="5"/>
+      <c r="B21" s="71" t="str">
+        <f>Planificación!C23</f>
+        <v>FASE DESARROLLO</v>
+      </c>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="72">
+        <f>SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80">
-        <f t="shared" si="6"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="72">
+        <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="83"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="80">
-        <f t="shared" si="7"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="72">
+        <f>SUM(L22:L23)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="84">
-        <f t="shared" si="8"/>
+      <c r="M21" s="87">
+        <f>E21+I21+L21</f>
         <v>0</v>
       </c>
       <c r="N21" s="85"/>
@@ -37282,31 +37292,31 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75">
-      <c r="B22" s="71" t="str">
-        <f>Planificación!C23</f>
-        <v>FASE DESARROLLO</v>
-      </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="72">
-        <f>SUM(E23:E24)</f>
+      <c r="B22" s="77" t="str">
+        <f>Planificación!C24</f>
+        <v>Desarrollo de interfaces</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80">
+        <f t="shared" ref="E22:E23" si="9">C22*D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="152"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="72">
-        <f>SUM(I23:I24)</f>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80">
+        <f t="shared" ref="I22:I23" si="10">G22*H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="153"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="72">
-        <f>SUM(L23:L24)</f>
+      <c r="J22" s="83"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80">
+        <f t="shared" ref="L22:L23" si="11">K22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="87">
-        <f>E22+I22+L22</f>
+      <c r="M22" s="84">
+        <f t="shared" ref="M22:M23" si="12">SUM(E22+I22+L22)</f>
         <v>0</v>
       </c>
       <c r="N22" s="85"/>
@@ -37317,30 +37327,30 @@
     </row>
     <row r="23" spans="2:15" ht="15.75">
       <c r="B23" s="77" t="str">
-        <f>Planificación!C24</f>
-        <v>Desarrollo de interfaces</v>
+        <f>Planificación!C25</f>
+        <v>Desarrollo del sistema</v>
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="79"/>
       <c r="E23" s="80">
-        <f t="shared" ref="E23:E24" si="9">C23*D23</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="82"/>
       <c r="H23" s="79"/>
       <c r="I23" s="80">
-        <f t="shared" ref="I23:I24" si="10">G23*H23</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="83"/>
       <c r="K23" s="79"/>
       <c r="L23" s="80">
-        <f t="shared" ref="L23:L24" si="11">K23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M23" s="84">
-        <f t="shared" ref="M23:M24" si="12">SUM(E23+I23+L23)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N23" s="85"/>
@@ -37349,32 +37359,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15.75">
-      <c r="B24" s="77" t="str">
-        <f>Planificación!C25</f>
-        <v>Desarrollo del sistema</v>
-      </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80">
-        <f t="shared" si="9"/>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B24" s="71" t="str">
+        <f>Planificación!C26</f>
+        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
+      </c>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="72">
+        <f>SUM(E25:E26)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80">
-        <f t="shared" si="10"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="72">
+        <f>SUM(I25:I26)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="83"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80">
-        <f t="shared" si="11"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="72">
+        <f>SUM(L25:L26)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="84">
-        <f t="shared" si="12"/>
+      <c r="M24" s="87">
+        <f>E24+I24+L24</f>
         <v>0</v>
       </c>
       <c r="N24" s="85"/>
@@ -37383,32 +37393,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B25" s="71" t="str">
-        <f>Planificación!C26</f>
-        <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
-      </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="72">
-        <f>SUM(E26:E27)</f>
+    <row r="25" spans="2:15" ht="15.75">
+      <c r="B25" s="77" t="str">
+        <f>Planificación!C27</f>
+        <v>Pruebas del sistema</v>
+      </c>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80">
+        <f t="shared" ref="E25:E26" si="13">C25*D25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="72">
-        <f>SUM(I26:I27)</f>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80">
+        <f t="shared" ref="I25:I26" si="14">G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="153"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="72">
-        <f>SUM(L26:L27)</f>
+      <c r="J25" s="83"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80">
+        <f t="shared" ref="L25:L26" si="15">K25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="87">
-        <f>E25+I25+L25</f>
+      <c r="M25" s="84">
+        <f t="shared" ref="M25:M26" si="16">SUM(E25+I25+L25)</f>
         <v>0</v>
       </c>
       <c r="N25" s="85"/>
@@ -37419,30 +37429,30 @@
     </row>
     <row r="26" spans="2:15" ht="15.75">
       <c r="B26" s="77" t="str">
-        <f>Planificación!C27</f>
-        <v>Pruebas del sistema</v>
+        <f>Planificación!C28</f>
+        <v>Documentación / Manuales</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="79"/>
       <c r="E26" s="80">
-        <f t="shared" ref="E26:E27" si="13">C26*D26</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F26" s="81"/>
       <c r="G26" s="82"/>
       <c r="H26" s="79"/>
       <c r="I26" s="80">
-        <f t="shared" ref="I26:I27" si="14">G26*H26</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="79"/>
       <c r="L26" s="80">
-        <f t="shared" ref="L26:L27" si="15">K26</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M26" s="84">
-        <f t="shared" ref="M26:M27" si="16">SUM(E26+I26+L26)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N26" s="85"/>
@@ -37452,112 +37462,90 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.75">
-      <c r="B27" s="77" t="str">
-        <f>Planificación!C28</f>
-        <v>Documentación / Manuales</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="80">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="83"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="80">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="84">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="85"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="95"/>
       <c r="O27" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="15.75">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75">
-      <c r="B29" s="96" t="s">
+      <c r="B28" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98">
-        <f>E8+E13+E22+E25</f>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98">
+        <f>E8+E13+E21+E24</f>
         <v>470000</v>
       </c>
-      <c r="F29" s="98"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98">
-        <f>I8+I13+I22+I25</f>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98">
+        <f>I8+I13+I21+I24</f>
         <v>80200</v>
       </c>
-      <c r="J29" s="99"/>
-      <c r="K29" s="98">
-        <f>SUM(K8:K28)</f>
+      <c r="J28" s="99"/>
+      <c r="K28" s="98">
+        <f>SUM(K8:K27)</f>
         <v>40000</v>
       </c>
-      <c r="L29" s="98"/>
-      <c r="M29" s="100">
-        <f>SUM(M8:M28)</f>
+      <c r="L28" s="98"/>
+      <c r="M28" s="100">
+        <f>SUM(M8:M27)</f>
         <v>1180400</v>
       </c>
-      <c r="N29" s="98">
-        <f>SUM(D29:L29)</f>
+      <c r="N28" s="98">
+        <f>SUM(D28:L28)</f>
         <v>590200</v>
       </c>
-      <c r="O29" s="101">
+      <c r="O28" s="101">
         <f t="shared" si="3"/>
         <v>590200</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75">
-      <c r="B30" s="102"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="106"/>
+    <row r="29" spans="2:15" ht="15.75">
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="C5:E5"/>
@@ -37565,20 +37553,8 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
-  <conditionalFormatting sqref="O29:O30">
+  <conditionalFormatting sqref="O28:O29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -37590,8 +37566,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O28">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="O9:O27">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37611,7 +37587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A24:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -37664,16 +37640,16 @@
       <c r="D38" s="111"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="162" t="s">
+      <c r="C39" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="117" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
+++ b/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Desktop\Repositorios\inventario\Diagrama de Gant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB474FEB-BD48-4892-8F68-0435C1417C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70C21F-26F8-4BE3-BD85-8BC901256204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1583,6 +1583,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1596,31 +1621,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1637,6 +1637,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,23 +1671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3471,7 +3471,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44001.467372106483" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44001.481919907405" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B10:G15" sheet="Recursos"/>
   </cacheSource>
@@ -3486,16 +3486,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Jose Damian Cuscue" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="0.99999999999999989"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
     <cacheField name="Juan Pablo Acosta" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="0.99999999999999989"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
     <cacheField name="Sebastian Jose Lagares" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
     <cacheField name="Yulieth Gutierrez" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
     <cacheField name="#¡REF!" numFmtId="9">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.6" maxValue="0.6"/>
@@ -3513,42 +3513,42 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
     <x v="0"/>
-    <n v="0.99999999999999989"/>
-    <n v="0.99999999999999989"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0.6"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.25"/>
+    <n v="0.3"/>
+    <n v="0.3"/>
+    <n v="0.3"/>
+    <n v="0.3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.2"/>
     <n v="0.2"/>
     <n v="0.2"/>
     <n v="0.2"/>
     <m/>
   </r>
   <r>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.15"/>
-    <n v="0.15"/>
-    <n v="0.1"/>
-    <m/>
-  </r>
-  <r>
     <x v="3"/>
     <n v="0.3"/>
     <n v="0.3"/>
-    <n v="0.25"/>
-    <n v="0.25"/>
+    <n v="0.3"/>
+    <n v="0.3"/>
     <m/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.35"/>
-    <n v="0.35"/>
-    <n v="0.4"/>
-    <n v="0.45"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
+    <n v="0.2"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -3829,16 +3829,16 @@
     <row r="1" spans="1:30" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -3863,14 +3863,14 @@
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -4001,15 +4001,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="124" t="s">
+      <c r="F6" s="136"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="126"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4118,7 +4118,7 @@
       <c r="C9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
@@ -4154,10 +4154,10 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="21">
         <v>43748</v>
       </c>
@@ -4201,10 +4201,10 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="130"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="24">
         <v>43775</v>
       </c>
@@ -4248,10 +4248,10 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="24">
         <v>43785</v>
       </c>
@@ -4298,10 +4298,10 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="22">
@@ -4344,10 +4344,10 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="24">
         <v>43971</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="C15" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="22"/>
@@ -4426,10 +4426,10 @@
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="130"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="24">
         <v>43961</v>
       </c>
@@ -4476,10 +4476,10 @@
       <c r="B17" s="16">
         <v>7</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="130"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="22">
@@ -4522,10 +4522,10 @@
       <c r="B18" s="16">
         <v>8</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="130"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="22">
@@ -4565,10 +4565,10 @@
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="22">
@@ -4608,10 +4608,10 @@
       <c r="B20" s="16">
         <v>10</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="22">
@@ -4651,10 +4651,10 @@
       <c r="B21" s="16">
         <v>11</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="24">
         <v>43985</v>
       </c>
@@ -4698,10 +4698,10 @@
       <c r="B22" s="16">
         <v>12</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="22">
@@ -4739,10 +4739,10 @@
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="1"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="132"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="22"/>
@@ -4778,10 +4778,10 @@
       <c r="B24" s="16">
         <v>13</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="130"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="22">
@@ -4824,10 +4824,10 @@
       <c r="B25" s="16">
         <v>14</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="130"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="22">
@@ -4871,7 +4871,7 @@
       <c r="C26" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="22"/>
@@ -4907,10 +4907,10 @@
       <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="130"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="22">
@@ -4953,10 +4953,10 @@
       <c r="B28" s="16">
         <v>16</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="130"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="22">
@@ -4997,8 +4997,8 @@
     <row r="29" spans="1:30" ht="15.75">
       <c r="A29" s="1"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="22"/>
@@ -5029,10 +5029,10 @@
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="1"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="135"/>
+      <c r="D30" s="123"/>
       <c r="E30" s="30">
         <f>E11</f>
         <v>43775</v>
@@ -36111,6 +36111,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -36121,21 +36136,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -36621,17 +36621,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="152">
+      <c r="M2" s="159">
         <f>M7</f>
         <v>590200</v>
       </c>
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="L3" s="151"/>
+      <c r="L3" s="158"/>
       <c r="M3" s="147"/>
       <c r="N3" s="149"/>
     </row>
@@ -36649,26 +36649,26 @@
     </row>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="6"/>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="153" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="154" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="155" t="s">
+      <c r="K5" s="136"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="155" t="s">
+      <c r="N5" s="162" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="55" t="s">
@@ -36709,8 +36709,8 @@
       <c r="L6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
       <c r="O6" s="61" t="s">
         <v>67</v>
       </c>
@@ -36747,21 +36747,21 @@
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="72">
         <f>SUM(E9:E12)</f>
         <v>360000</v>
       </c>
-      <c r="F8" s="161"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="139"/>
       <c r="H8" s="140"/>
       <c r="I8" s="72">
         <f>SUM(I9:I12)</f>
         <v>45200</v>
       </c>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
       <c r="L8" s="73">
         <f>SUM(L9:L12)</f>
         <v>40000</v>
@@ -36970,21 +36970,21 @@
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="72">
         <f>SUM(E14:E20)</f>
         <v>110000</v>
       </c>
-      <c r="F13" s="157"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="139"/>
       <c r="H13" s="140"/>
       <c r="I13" s="72">
         <f>SUM(I14:I20)</f>
         <v>35000</v>
       </c>
-      <c r="J13" s="158"/>
-      <c r="K13" s="128"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="72">
         <f>SUM(L14:L20)</f>
         <v>0</v>
@@ -37262,21 +37262,21 @@
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="72">
         <f>SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="157"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="139"/>
       <c r="H21" s="140"/>
       <c r="I21" s="72">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="158"/>
-      <c r="K21" s="128"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="121"/>
       <c r="L21" s="72">
         <f>SUM(L22:L23)</f>
         <v>0</v>
@@ -37364,21 +37364,21 @@
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="72">
         <f>SUM(E25:E26)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="139"/>
       <c r="H24" s="140"/>
       <c r="I24" s="72">
         <f>SUM(I25:I26)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="158"/>
-      <c r="K24" s="128"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="121"/>
       <c r="L24" s="72">
         <f>SUM(L25:L26)</f>
         <v>0</v>
@@ -37534,18 +37534,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="C5:E5"/>
@@ -37553,6 +37541,18 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="O28:O29">
     <cfRule type="colorScale" priority="1">

--- a/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
+++ b/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Desktop\Repositorios\inventario\Diagrama de Gant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70C21F-26F8-4BE3-BD85-8BC901256204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FEE58A-D22E-4B36-81B2-898275A8BA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Otros</t>
+    <t>Internet</t>
   </si>
 </sst>
 </file>
@@ -1583,31 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,6 +1596,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1637,23 +1637,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1671,6 +1654,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,6 +1963,12 @@
                 <c:pt idx="7" formatCode="d/m/yyyy">
                   <c:v>43961</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="d/m/yyyy">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="d/m/yyyy">
+                  <c:v>44004</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="d/m/yyyy">
                   <c:v>43985</c:v>
                 </c:pt>
@@ -2084,10 +2090,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3471,7 +3477,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44001.481919907405" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44006.719145717594" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B10:G15" sheet="Recursos"/>
   </cacheSource>
@@ -3803,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3829,16 +3835,16 @@
     <row r="1" spans="1:30" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -3863,14 +3869,14 @@
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -4001,15 +4007,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="135" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="137"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4118,7 +4124,7 @@
       <c r="C9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="121"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
@@ -4154,10 +4160,10 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="21">
         <v>43748</v>
       </c>
@@ -4201,10 +4207,10 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="24">
         <v>43775</v>
       </c>
@@ -4248,10 +4254,10 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="126"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="24">
         <v>43785</v>
       </c>
@@ -4298,10 +4304,10 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="22">
@@ -4344,10 +4350,10 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="126"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="24">
         <v>43971</v>
       </c>
@@ -4390,7 +4396,7 @@
       <c r="C15" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="121"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="22"/>
@@ -4426,10 +4432,10 @@
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="24">
         <v>43961</v>
       </c>
@@ -4476,10 +4482,10 @@
       <c r="B17" s="16">
         <v>7</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="22">
@@ -4522,15 +4528,19 @@
       <c r="B18" s="16">
         <v>8</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="24">
+        <v>44002</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44003</v>
+      </c>
       <c r="G18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>28</v>
@@ -4565,15 +4575,19 @@
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="24">
+        <v>44004</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44005</v>
+      </c>
       <c r="G19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>30</v>
@@ -4608,10 +4622,10 @@
       <c r="B20" s="16">
         <v>10</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="22">
@@ -4651,10 +4665,10 @@
       <c r="B21" s="16">
         <v>11</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="24">
         <v>43985</v>
       </c>
@@ -4698,10 +4712,10 @@
       <c r="B22" s="16">
         <v>12</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="22">
@@ -4739,10 +4753,10 @@
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="1"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="22"/>
@@ -4778,10 +4792,10 @@
       <c r="B24" s="16">
         <v>13</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="119"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="22">
@@ -4824,10 +4838,10 @@
       <c r="B25" s="16">
         <v>14</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="119"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="22">
@@ -4871,7 +4885,7 @@
       <c r="C26" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="121"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="22"/>
@@ -4907,10 +4921,10 @@
       <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="119"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="22">
@@ -4953,10 +4967,10 @@
       <c r="B28" s="16">
         <v>16</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="119"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="22">
@@ -4997,8 +5011,8 @@
     <row r="29" spans="1:30" ht="15.75">
       <c r="A29" s="1"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="22"/>
@@ -5029,10 +5043,10 @@
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="1"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="123"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="30">
         <f>E11</f>
         <v>43775</v>
@@ -36111,21 +36125,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -36136,6 +36135,21 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -36163,8 +36177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36448,10 +36462,18 @@
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.4</v>
+      </c>
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:13" ht="15.75">
@@ -36470,10 +36492,18 @@
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.4</v>
+      </c>
       <c r="G20" s="49"/>
     </row>
     <row r="21" spans="2:13" ht="15.75">
@@ -36604,7 +36634,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36621,17 +36651,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="L2" s="157" t="s">
+      <c r="L2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="159">
+      <c r="M2" s="152">
         <f>M7</f>
-        <v>590200</v>
+        <v>815200</v>
       </c>
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="L3" s="158"/>
+      <c r="L3" s="151"/>
       <c r="M3" s="147"/>
       <c r="N3" s="149"/>
     </row>
@@ -36649,26 +36679,26 @@
     </row>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="6"/>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="160" t="s">
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="161" t="s">
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="162" t="s">
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="162" t="s">
+      <c r="N5" s="155" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="55" t="s">
@@ -36709,8 +36739,8 @@
       <c r="L6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
       <c r="O6" s="61" t="s">
         <v>67</v>
       </c>
@@ -36731,7 +36761,7 @@
       <c r="L7" s="68"/>
       <c r="M7" s="70">
         <f>M8+M13+M21+M24</f>
-        <v>590200</v>
+        <v>815200</v>
       </c>
       <c r="N7" s="70">
         <f>SUM(N8:N27)</f>
@@ -36739,7 +36769,7 @@
       </c>
       <c r="O7" s="70">
         <f>M7-N7</f>
-        <v>590200</v>
+        <v>815200</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75">
@@ -36747,21 +36777,21 @@
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="72">
         <f>SUM(E9:E12)</f>
         <v>360000</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="139"/>
       <c r="H8" s="140"/>
       <c r="I8" s="72">
         <f>SUM(I9:I12)</f>
         <v>45200</v>
       </c>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="163"/>
       <c r="L8" s="73">
         <f>SUM(L9:L12)</f>
         <v>40000</v>
@@ -36970,33 +37000,33 @@
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="72">
         <f>SUM(E14:E20)</f>
-        <v>110000</v>
-      </c>
-      <c r="F13" s="155"/>
+        <v>155000</v>
+      </c>
+      <c r="F13" s="157"/>
       <c r="G13" s="139"/>
       <c r="H13" s="140"/>
       <c r="I13" s="72">
         <f>SUM(I14:I20)</f>
-        <v>35000</v>
-      </c>
-      <c r="J13" s="156"/>
-      <c r="K13" s="121"/>
+        <v>215000</v>
+      </c>
+      <c r="J13" s="158"/>
+      <c r="K13" s="128"/>
       <c r="L13" s="72">
         <f>SUM(L14:L20)</f>
         <v>0</v>
       </c>
       <c r="M13" s="87">
         <f>E13+I13+L13</f>
-        <v>145000</v>
+        <v>370000</v>
       </c>
       <c r="N13" s="85"/>
       <c r="O13" s="86">
         <f t="shared" si="3"/>
-        <v>145000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75">
@@ -37005,14 +37035,14 @@
         <v>Casos de Uso</v>
       </c>
       <c r="C14" s="78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="79">
         <v>3000</v>
       </c>
       <c r="E14" s="80">
         <f t="shared" ref="E14:E20" si="5">C14*D14</f>
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="F14" s="81" t="s">
         <v>81</v>
@@ -37035,12 +37065,12 @@
       </c>
       <c r="M14" s="84">
         <f t="shared" ref="M14:M20" si="8">SUM(E14+I14+L14)</f>
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="86">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75">
@@ -37058,14 +37088,14 @@
         <v>85</v>
       </c>
       <c r="G15" s="82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H15" s="79">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="80">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="79"/>
@@ -37075,12 +37105,12 @@
       </c>
       <c r="M15" s="84">
         <f t="shared" si="8"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="N15" s="85"/>
       <c r="O15" s="86">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75">
@@ -37088,11 +37118,15 @@
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="78">
+        <v>9</v>
+      </c>
+      <c r="D16" s="79">
+        <v>3000</v>
+      </c>
       <c r="E16" s="80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="F16" s="81"/>
       <c r="G16" s="82"/>
@@ -37109,12 +37143,12 @@
       </c>
       <c r="M16" s="84">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="N16" s="85"/>
       <c r="O16" s="86">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="15.75">
@@ -37122,11 +37156,15 @@
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="78">
+        <v>9</v>
+      </c>
+      <c r="D17" s="79">
+        <v>3000</v>
+      </c>
       <c r="E17" s="80">
         <f>C17*D17</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="F17" s="81"/>
       <c r="G17" s="82"/>
@@ -37143,12 +37181,12 @@
       </c>
       <c r="M17" s="84">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="N17" s="85"/>
       <c r="O17" s="86">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75">
@@ -37262,21 +37300,21 @@
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="72">
         <f>SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="155"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="139"/>
       <c r="H21" s="140"/>
       <c r="I21" s="72">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="156"/>
-      <c r="K21" s="121"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="128"/>
       <c r="L21" s="72">
         <f>SUM(L22:L23)</f>
         <v>0</v>
@@ -37364,21 +37402,21 @@
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="151"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="72">
         <f>SUM(E25:E26)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="155"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="139"/>
       <c r="H24" s="140"/>
       <c r="I24" s="72">
         <f>SUM(I25:I26)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="156"/>
-      <c r="K24" s="121"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="128"/>
       <c r="L24" s="72">
         <f>SUM(L25:L26)</f>
         <v>0</v>
@@ -37488,14 +37526,14 @@
       <c r="D28" s="98"/>
       <c r="E28" s="98">
         <f>E8+E13+E21+E24</f>
-        <v>470000</v>
+        <v>515000</v>
       </c>
       <c r="F28" s="98"/>
       <c r="G28" s="99"/>
       <c r="H28" s="98"/>
       <c r="I28" s="98">
         <f>I8+I13+I21+I24</f>
-        <v>80200</v>
+        <v>260200</v>
       </c>
       <c r="J28" s="99"/>
       <c r="K28" s="98">
@@ -37505,15 +37543,15 @@
       <c r="L28" s="98"/>
       <c r="M28" s="100">
         <f>SUM(M8:M27)</f>
-        <v>1180400</v>
+        <v>1630400</v>
       </c>
       <c r="N28" s="98">
         <f>SUM(D28:L28)</f>
-        <v>590200</v>
+        <v>815200</v>
       </c>
       <c r="O28" s="101">
         <f t="shared" si="3"/>
-        <v>590200</v>
+        <v>815200</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75">
@@ -37534,6 +37572,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="C5:E5"/>
@@ -37541,18 +37591,6 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="O28:O29">
     <cfRule type="colorScale" priority="1">
@@ -37587,7 +37625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A24:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
+++ b/Diagrama de Gant/Plantilla Gestión del Proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Desktop\Repositorios\inventario\Diagrama de Gant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Damian\Documents\GitHub\INVENTARIO\Diagrama de Gant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FEE58A-D22E-4B36-81B2-898275A8BA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B1888-7FFD-4A2D-8AE0-06E8F841E0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>Hoja de presupuesto del proyecto</t>
   </si>
@@ -297,19 +297,10 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>Cuadernos</t>
-  </si>
-  <si>
     <t>10_10_2019</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha de inicio: </t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Internet</t>
   </si>
 </sst>
 </file>
@@ -1583,6 +1574,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1596,31 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1637,6 +1628,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,23 +1662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,7 +2072,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43971</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -3477,7 +3468,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44006.719145717594" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jose Damian" refreshedDate="44009.66463240741" refreshedVersion="6" recordCount="5" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B10:G15" sheet="Recursos"/>
   </cacheSource>
@@ -3810,7 +3801,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3835,16 +3826,16 @@
     <row r="1" spans="1:30" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -3869,14 +3860,14 @@
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -3938,10 +3929,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4007,15 +3998,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="124" t="s">
+      <c r="F6" s="136"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="126"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4124,7 +4115,7 @@
       <c r="C9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
@@ -4160,10 +4151,10 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="21">
         <v>43748</v>
       </c>
@@ -4207,10 +4198,10 @@
       <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="130"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="24">
         <v>43775</v>
       </c>
@@ -4254,10 +4245,10 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="24">
         <v>43785</v>
       </c>
@@ -4304,10 +4295,10 @@
       <c r="B13" s="16">
         <v>4</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="22">
@@ -4350,17 +4341,19 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="24">
         <v>43971</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="24">
+        <v>43975</v>
+      </c>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>-43971</v>
+        <v>4</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>22</v>
@@ -4396,7 +4389,7 @@
       <c r="C15" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="22"/>
@@ -4432,10 +4425,10 @@
       <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="130"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="24">
         <v>43961</v>
       </c>
@@ -4482,10 +4475,10 @@
       <c r="B17" s="16">
         <v>7</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="130"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="22">
@@ -4528,10 +4521,10 @@
       <c r="B18" s="16">
         <v>8</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="130"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="24">
         <v>44002</v>
       </c>
@@ -4575,10 +4568,10 @@
       <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="24">
         <v>44004</v>
       </c>
@@ -4622,10 +4615,10 @@
       <c r="B20" s="16">
         <v>10</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="22">
@@ -4665,10 +4658,10 @@
       <c r="B21" s="16">
         <v>11</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="24">
         <v>43985</v>
       </c>
@@ -4712,10 +4705,10 @@
       <c r="B22" s="16">
         <v>12</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="22">
@@ -4753,10 +4746,10 @@
     <row r="23" spans="1:30" ht="15.75">
       <c r="A23" s="1"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="132"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="22"/>
@@ -4792,10 +4785,10 @@
       <c r="B24" s="16">
         <v>13</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="130"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="22">
@@ -4838,10 +4831,10 @@
       <c r="B25" s="16">
         <v>14</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="130"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="22">
@@ -4885,7 +4878,7 @@
       <c r="C26" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="22"/>
@@ -4921,10 +4914,10 @@
       <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="130"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="22">
@@ -4967,10 +4960,10 @@
       <c r="B28" s="16">
         <v>16</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="130"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="22">
@@ -5011,8 +5004,8 @@
     <row r="29" spans="1:30" ht="15.75">
       <c r="A29" s="1"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="22"/>
@@ -5043,10 +5036,10 @@
     <row r="30" spans="1:30" ht="15.75">
       <c r="A30" s="1"/>
       <c r="B30" s="29"/>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="135"/>
+      <c r="D30" s="123"/>
       <c r="E30" s="30">
         <f>E11</f>
         <v>43775</v>
@@ -36125,6 +36118,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -36135,21 +36143,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -36178,7 +36171,7 @@
   <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36481,10 +36474,18 @@
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="C19" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0.4</v>
+      </c>
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="2:13" ht="15.75">
@@ -36634,7 +36635,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -36651,17 +36652,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="152">
+      <c r="M2" s="159">
         <f>M7</f>
-        <v>815200</v>
+        <v>580200</v>
       </c>
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="L3" s="151"/>
+      <c r="L3" s="158"/>
       <c r="M3" s="147"/>
       <c r="N3" s="149"/>
     </row>
@@ -36679,26 +36680,26 @@
     </row>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="6"/>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="153" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="154" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="155" t="s">
+      <c r="K5" s="136"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="155" t="s">
+      <c r="N5" s="162" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="55" t="s">
@@ -36739,8 +36740,8 @@
       <c r="L6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
       <c r="O6" s="61" t="s">
         <v>67</v>
       </c>
@@ -36761,7 +36762,7 @@
       <c r="L7" s="68"/>
       <c r="M7" s="70">
         <f>M8+M13+M21+M24</f>
-        <v>815200</v>
+        <v>580200</v>
       </c>
       <c r="N7" s="70">
         <f>SUM(N8:N27)</f>
@@ -36769,7 +36770,7 @@
       </c>
       <c r="O7" s="70">
         <f>M7-N7</f>
-        <v>815200</v>
+        <v>580200</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75">
@@ -36777,28 +36778,28 @@
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="72">
         <f>SUM(E9:E12)</f>
         <v>360000</v>
       </c>
-      <c r="F8" s="161"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="139"/>
       <c r="H8" s="140"/>
       <c r="I8" s="72">
         <f>SUM(I9:I12)</f>
         <v>45200</v>
       </c>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
       <c r="L8" s="73">
         <f>SUM(L9:L12)</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M8" s="74">
         <f>E8+I8+L8</f>
-        <v>445200</v>
+        <v>425200</v>
       </c>
       <c r="N8" s="75"/>
       <c r="O8" s="76"/>
@@ -36975,24 +36976,20 @@
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J12" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="79">
-        <v>20000</v>
-      </c>
+      <c r="J12" s="83"/>
+      <c r="K12" s="79"/>
       <c r="L12" s="80">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="84">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>32000</v>
       </c>
       <c r="N12" s="85"/>
       <c r="O12" s="86">
         <f t="shared" si="3"/>
-        <v>52000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75">
@@ -37000,33 +36997,33 @@
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="72">
         <f>SUM(E14:E20)</f>
         <v>155000</v>
       </c>
-      <c r="F13" s="157"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="139"/>
       <c r="H13" s="140"/>
       <c r="I13" s="72">
         <f>SUM(I14:I20)</f>
-        <v>215000</v>
-      </c>
-      <c r="J13" s="158"/>
-      <c r="K13" s="128"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="156"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="72">
         <f>SUM(L14:L20)</f>
         <v>0</v>
       </c>
       <c r="M13" s="87">
         <f>E13+I13+L13</f>
-        <v>370000</v>
+        <v>155000</v>
       </c>
       <c r="N13" s="85"/>
       <c r="O13" s="86">
         <f t="shared" si="3"/>
-        <v>370000</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75">
@@ -37044,18 +37041,12 @@
         <f t="shared" ref="E14:E20" si="5">C14*D14</f>
         <v>21000</v>
       </c>
-      <c r="F14" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="82">
-        <v>5</v>
-      </c>
-      <c r="H14" s="79">
-        <v>3000</v>
-      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="80">
         <f t="shared" ref="I14:I20" si="6">G14*H14</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="79"/>
@@ -37065,12 +37056,12 @@
       </c>
       <c r="M14" s="84">
         <f t="shared" ref="M14:M20" si="8">SUM(E14+I14+L14)</f>
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="86">
         <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75">
@@ -37084,18 +37075,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F15" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="82">
-        <v>4</v>
-      </c>
-      <c r="H15" s="79">
-        <v>50000</v>
-      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="80">
         <f t="shared" si="6"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="79"/>
@@ -37105,12 +37090,12 @@
       </c>
       <c r="M15" s="84">
         <f t="shared" si="8"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="N15" s="85"/>
       <c r="O15" s="86">
         <f t="shared" si="3"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75">
@@ -37300,21 +37285,21 @@
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="72">
         <f>SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="157"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="139"/>
       <c r="H21" s="140"/>
       <c r="I21" s="72">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="158"/>
-      <c r="K21" s="128"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="121"/>
       <c r="L21" s="72">
         <f>SUM(L22:L23)</f>
         <v>0</v>
@@ -37402,21 +37387,21 @@
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="72">
         <f>SUM(E25:E26)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="139"/>
       <c r="H24" s="140"/>
       <c r="I24" s="72">
         <f>SUM(I25:I26)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="158"/>
-      <c r="K24" s="128"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="121"/>
       <c r="L24" s="72">
         <f>SUM(L25:L26)</f>
         <v>0</v>
@@ -37533,25 +37518,25 @@
       <c r="H28" s="98"/>
       <c r="I28" s="98">
         <f>I8+I13+I21+I24</f>
-        <v>260200</v>
+        <v>45200</v>
       </c>
       <c r="J28" s="99"/>
       <c r="K28" s="98">
         <f>SUM(K8:K27)</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="100">
         <f>SUM(M8:M27)</f>
-        <v>1630400</v>
+        <v>1160400</v>
       </c>
       <c r="N28" s="98">
         <f>SUM(D28:L28)</f>
-        <v>815200</v>
+        <v>580200</v>
       </c>
       <c r="O28" s="101">
         <f t="shared" si="3"/>
-        <v>815200</v>
+        <v>580200</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75">
@@ -37572,18 +37557,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="C5:E5"/>
@@ -37591,6 +37564,18 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="O28:O29">
     <cfRule type="colorScale" priority="1">
